--- a/src/main/resources/excel/meetingSheet_3rd2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_3rd2term.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamazakikeisuke/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F425D755-F106-AE47-9FAE-27628ADBFA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29CDBA-4ED6-7D40-B8A9-6371B8DCD83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1758,101 +1758,125 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1866,15 +1890,18 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1893,110 +1920,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2348,86 +2342,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="111" t="s">
+      <c r="T1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="111" t="s">
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="109"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="117"/>
       <c r="S2" s="31"/>
-      <c r="T2" s="129" t="s">
+      <c r="T2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
       <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="D3" s="89" t="s">
+      <c r="B3" s="120"/>
+      <c r="D3" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="82"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="34" t="s">
         <v>16</v>
       </c>
@@ -2500,17 +2494,17 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="123" t="str" cm="1">
+      <c r="B4" s="111" t="str" cm="1">
         <f t="array" ref="B4">IFERROR(_xlfn.IFS(P9&gt;9,P9*2+P7,P8&gt;9,P8*2+P7,P7&gt;9,P7*3,P6&gt;9,P6*3,P5&gt;9,P5*3,P4&gt;9,P4*3),"")</f>
         <v/>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="14"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2538,12 +2532,12 @@
       <c r="AC4" s="21"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="123"/>
-      <c r="D5" s="116" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="111"/>
+      <c r="D5" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="117"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="15"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2571,17 +2565,17 @@
       <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="123" t="str" cm="1">
+      <c r="B6" s="111" t="str" cm="1">
         <f t="array" ref="B6">IFERROR(_xlfn.IFS(P9&gt;9,P9,P8&gt;9,P8,P7&gt;9,P7,P6&gt;9,P6,P5&gt;9,P5,P4&gt;9,P4),"")</f>
         <v/>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="119"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="40"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
@@ -2609,12 +2603,12 @@
       <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="120"/>
-      <c r="B7" s="123"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="111"/>
+      <c r="D7" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="122"/>
+      <c r="E7" s="130"/>
       <c r="F7" s="44"/>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
@@ -2642,17 +2636,17 @@
       <c r="AC7" s="23"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="123" t="str" cm="1">
+      <c r="B8" s="111" t="str" cm="1">
         <f t="array" ref="B8">IFERROR(_xlfn.IFS(K9&gt;9,K9+K7,K8&gt;9,K8+K7,K7&gt;9,K7*2,K6&gt;0,K6*2,K5&gt;0,K5*2,K4&gt;0,K4*2),"")</f>
         <v/>
       </c>
-      <c r="D8" s="131" t="s">
+      <c r="D8" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="132"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="48"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
@@ -2680,12 +2674,12 @@
       <c r="AC8" s="65"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="120"/>
-      <c r="B9" s="123"/>
-      <c r="D9" s="133" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="111"/>
+      <c r="D9" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="134"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
@@ -2713,10 +2707,10 @@
       <c r="AC9" s="21"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="123" t="str" cm="1">
+      <c r="B10" s="111" t="str" cm="1">
         <f t="array" ref="B10">IFERROR(_xlfn.IFS(K9&gt;0,K9,K8&gt;0,K8,K7&gt;0,K7,K6&gt;0,K6,K5&gt;0,K5,K4&gt;0,K4),"")</f>
         <v/>
       </c>
@@ -2749,12 +2743,12 @@
       <c r="AC10" s="21"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="120"/>
-      <c r="B11" s="123"/>
-      <c r="D11" s="135" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="111"/>
+      <c r="D11" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="136"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="36" t="s">
         <v>16</v>
       </c>
@@ -2804,17 +2798,17 @@
       <c r="AC11" s="23"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="123" t="str">
+      <c r="B12" s="111" t="str">
         <f>IFERROR(ROUND(B4/135*100,0),"")</f>
         <v/>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="76"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="14"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2851,12 +2845,12 @@
       <c r="AC12" s="66"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="137"/>
-      <c r="B13" s="123"/>
-      <c r="D13" s="75" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="111"/>
+      <c r="D13" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="14"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2893,17 +2887,17 @@
       <c r="AC13" s="21"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="94" t="str">
+      <c r="B14" s="112" t="str">
         <f>IFERROR(LOOKUP(10^10,N12:N17),"")</f>
         <v/>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="76"/>
+      <c r="E14" s="140"/>
       <c r="F14" s="14"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2940,12 +2934,12 @@
       <c r="AC14" s="23"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="138"/>
-      <c r="B15" s="141"/>
-      <c r="D15" s="75" t="s">
+      <c r="A15" s="108"/>
+      <c r="B15" s="113"/>
+      <c r="D15" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="14"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2980,17 +2974,17 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="139" t="s">
+      <c r="A16" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="94" t="str">
+      <c r="B16" s="112" t="str">
         <f>IFERROR(LOOKUP(10^10,O12:O17),"")</f>
         <v/>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="76"/>
+      <c r="E16" s="140"/>
       <c r="F16" s="14"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3027,12 +3021,12 @@
       <c r="AC16" s="53"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="140"/>
-      <c r="B17" s="141"/>
-      <c r="D17" s="104" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="113"/>
+      <c r="D17" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="105"/>
+      <c r="E17" s="142"/>
       <c r="F17" s="15"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -3067,10 +3061,10 @@
       <c r="AC17" s="55"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="94" t="str">
+      <c r="B18" s="112" t="str">
         <f>IFERROR(LOOKUP(10^10,P12:P17),"")</f>
         <v/>
       </c>
@@ -3089,8 +3083,8 @@
       <c r="AC18" s="55"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="142"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="131"/>
       <c r="R19" s="57"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3119,34 +3113,34 @@
       <c r="AC20" s="55"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="100" t="s">
+      <c r="B21" s="132"/>
+      <c r="C21" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="102" t="s">
+      <c r="D21" s="132"/>
+      <c r="E21" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="102" t="s">
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="102" t="s">
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="102" t="s">
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="103"/>
-      <c r="P21" s="106"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="143"/>
       <c r="R21" s="56"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3161,10 +3155,10 @@
       <c r="AC21" s="55"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="99"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="6">
         <v>2019</v>
       </c>
@@ -3215,10 +3209,10 @@
       <c r="AC22" s="55"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -3245,10 +3239,10 @@
       <c r="AC23" s="55"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="71"/>
@@ -3275,10 +3269,10 @@
       <c r="AC24" s="55"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="73"/>
@@ -3319,30 +3313,30 @@
       <c r="AC26" s="55"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="81" t="s">
+      <c r="B27" s="122"/>
+      <c r="C27" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="81" t="s">
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="81" t="s">
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O27" s="82"/>
-      <c r="P27" s="84"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="150"/>
       <c r="R27" s="56"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3357,22 +3351,22 @@
       <c r="AC27" s="55"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="79"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="151"/>
       <c r="R28" s="56"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3387,22 +3381,22 @@
       <c r="AC28" s="55"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="90"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="79"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="151"/>
       <c r="R29" s="56"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3417,22 +3411,22 @@
       <c r="AC29" s="55"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="79"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="151"/>
       <c r="R30" s="56"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3447,22 +3441,22 @@
       <c r="AC30" s="55"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="90"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="79"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="151"/>
       <c r="R31" s="56"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3477,22 +3471,22 @@
       <c r="AC31" s="55"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="80"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="152"/>
       <c r="R32" s="58"/>
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
@@ -3513,80 +3507,80 @@
       </c>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125" t="s">
+      <c r="B35" s="94"/>
+      <c r="C35" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125" t="s">
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125" t="s">
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="126"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="95"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="128"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="90"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="90"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="128"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="90"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="85"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="148"/>
-      <c r="N38" s="148"/>
-      <c r="O38" s="149"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="92"/>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="10" t="s">
@@ -3599,134 +3593,134 @@
       </c>
     </row>
     <row r="42" spans="1:29">
-      <c r="A42" s="143" t="s">
+      <c r="A42" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144" t="s">
+      <c r="B42" s="84"/>
+      <c r="C42" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
-      <c r="O42" s="144"/>
-      <c r="P42" s="144"/>
-      <c r="Q42" s="144" t="s">
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="R42" s="144"/>
-      <c r="S42" s="144"/>
-      <c r="T42" s="144"/>
-      <c r="U42" s="144"/>
-      <c r="V42" s="144"/>
-      <c r="W42" s="144"/>
-      <c r="X42" s="144"/>
-      <c r="Y42" s="144"/>
-      <c r="Z42" s="144"/>
-      <c r="AA42" s="144"/>
-      <c r="AB42" s="144"/>
-      <c r="AC42" s="145"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="84"/>
+      <c r="U42" s="84"/>
+      <c r="V42" s="84"/>
+      <c r="W42" s="84"/>
+      <c r="X42" s="84"/>
+      <c r="Y42" s="84"/>
+      <c r="Z42" s="84"/>
+      <c r="AA42" s="84"/>
+      <c r="AB42" s="84"/>
+      <c r="AC42" s="88"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="90"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
-      <c r="O43" s="146"/>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="146"/>
-      <c r="R43" s="146"/>
-      <c r="S43" s="146"/>
-      <c r="T43" s="146"/>
-      <c r="U43" s="146"/>
-      <c r="V43" s="146"/>
-      <c r="W43" s="146"/>
-      <c r="X43" s="146"/>
-      <c r="Y43" s="146"/>
-      <c r="Z43" s="146"/>
-      <c r="AA43" s="146"/>
-      <c r="AB43" s="146"/>
-      <c r="AC43" s="147"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="77"/>
+      <c r="Z43" s="77"/>
+      <c r="AA43" s="77"/>
+      <c r="AB43" s="77"/>
+      <c r="AC43" s="78"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="90"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="146"/>
-      <c r="N44" s="146"/>
-      <c r="O44" s="146"/>
-      <c r="P44" s="146"/>
-      <c r="Q44" s="146"/>
-      <c r="R44" s="146"/>
-      <c r="S44" s="146"/>
-      <c r="T44" s="146"/>
-      <c r="U44" s="146"/>
-      <c r="V44" s="146"/>
-      <c r="W44" s="146"/>
-      <c r="X44" s="146"/>
-      <c r="Y44" s="146"/>
-      <c r="Z44" s="146"/>
-      <c r="AA44" s="146"/>
-      <c r="AB44" s="146"/>
-      <c r="AC44" s="147"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="77"/>
+      <c r="W44" s="77"/>
+      <c r="X44" s="77"/>
+      <c r="Y44" s="77"/>
+      <c r="Z44" s="77"/>
+      <c r="AA44" s="77"/>
+      <c r="AB44" s="77"/>
+      <c r="AC44" s="78"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="85"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
-      <c r="S45" s="153"/>
-      <c r="T45" s="153"/>
-      <c r="U45" s="153"/>
-      <c r="V45" s="153"/>
-      <c r="W45" s="153"/>
-      <c r="X45" s="153"/>
-      <c r="Y45" s="153"/>
-      <c r="Z45" s="153"/>
-      <c r="AA45" s="153"/>
-      <c r="AB45" s="153"/>
-      <c r="AC45" s="154"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="81"/>
+      <c r="AA45" s="81"/>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="82"/>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="10" t="s">
@@ -3734,237 +3728,256 @@
       </c>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="143" t="s">
+      <c r="A47" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="144"/>
-      <c r="C47" s="144" t="s">
+      <c r="B47" s="84"/>
+      <c r="C47" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="144"/>
-      <c r="P47" s="144"/>
-      <c r="Q47" s="150" t="s">
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="R47" s="151"/>
-      <c r="S47" s="151"/>
-      <c r="T47" s="151"/>
-      <c r="U47" s="151"/>
-      <c r="V47" s="151"/>
-      <c r="W47" s="151"/>
-      <c r="X47" s="151"/>
-      <c r="Y47" s="151"/>
-      <c r="Z47" s="151"/>
-      <c r="AA47" s="151"/>
-      <c r="AB47" s="151"/>
-      <c r="AC47" s="152"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="86"/>
+      <c r="X47" s="86"/>
+      <c r="Y47" s="86"/>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="86"/>
+      <c r="AB47" s="86"/>
+      <c r="AC47" s="87"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="90"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="146"/>
-      <c r="N48" s="146"/>
-      <c r="O48" s="146"/>
-      <c r="P48" s="146"/>
-      <c r="Q48" s="146"/>
-      <c r="R48" s="146"/>
-      <c r="S48" s="146"/>
-      <c r="T48" s="146"/>
-      <c r="U48" s="146"/>
-      <c r="V48" s="146"/>
-      <c r="W48" s="146"/>
-      <c r="X48" s="146"/>
-      <c r="Y48" s="146"/>
-      <c r="Z48" s="146"/>
-      <c r="AA48" s="146"/>
-      <c r="AB48" s="146"/>
-      <c r="AC48" s="147"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="77"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="77"/>
+      <c r="T48" s="77"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
+      <c r="AB48" s="77"/>
+      <c r="AC48" s="78"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="90"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="146"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="146"/>
-      <c r="M49" s="146"/>
-      <c r="N49" s="146"/>
-      <c r="O49" s="146"/>
-      <c r="P49" s="146"/>
-      <c r="Q49" s="146"/>
-      <c r="R49" s="146"/>
-      <c r="S49" s="146"/>
-      <c r="T49" s="146"/>
-      <c r="U49" s="146"/>
-      <c r="V49" s="146"/>
-      <c r="W49" s="146"/>
-      <c r="X49" s="146"/>
-      <c r="Y49" s="146"/>
-      <c r="Z49" s="146"/>
-      <c r="AA49" s="146"/>
-      <c r="AB49" s="146"/>
-      <c r="AC49" s="147"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
+      <c r="Y49" s="77"/>
+      <c r="Z49" s="77"/>
+      <c r="AA49" s="77"/>
+      <c r="AB49" s="77"/>
+      <c r="AC49" s="78"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="90"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="146"/>
-      <c r="J50" s="146"/>
-      <c r="K50" s="146"/>
-      <c r="L50" s="146"/>
-      <c r="M50" s="146"/>
-      <c r="N50" s="146"/>
-      <c r="O50" s="146"/>
-      <c r="P50" s="146"/>
-      <c r="Q50" s="146"/>
-      <c r="R50" s="146"/>
-      <c r="S50" s="146"/>
-      <c r="T50" s="146"/>
-      <c r="U50" s="146"/>
-      <c r="V50" s="146"/>
-      <c r="W50" s="146"/>
-      <c r="X50" s="146"/>
-      <c r="Y50" s="146"/>
-      <c r="Z50" s="146"/>
-      <c r="AA50" s="146"/>
-      <c r="AB50" s="146"/>
-      <c r="AC50" s="147"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="77"/>
+      <c r="S50" s="77"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="77"/>
+      <c r="V50" s="77"/>
+      <c r="W50" s="77"/>
+      <c r="X50" s="77"/>
+      <c r="Y50" s="77"/>
+      <c r="Z50" s="77"/>
+      <c r="AA50" s="77"/>
+      <c r="AB50" s="77"/>
+      <c r="AC50" s="78"/>
     </row>
     <row r="51" spans="1:29">
-      <c r="A51" s="90"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="146"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="146"/>
-      <c r="K51" s="146"/>
-      <c r="L51" s="146"/>
-      <c r="M51" s="146"/>
-      <c r="N51" s="146"/>
-      <c r="O51" s="146"/>
-      <c r="P51" s="146"/>
-      <c r="Q51" s="146"/>
-      <c r="R51" s="146"/>
-      <c r="S51" s="146"/>
-      <c r="T51" s="146"/>
-      <c r="U51" s="146"/>
-      <c r="V51" s="146"/>
-      <c r="W51" s="146"/>
-      <c r="X51" s="146"/>
-      <c r="Y51" s="146"/>
-      <c r="Z51" s="146"/>
-      <c r="AA51" s="146"/>
-      <c r="AB51" s="146"/>
-      <c r="AC51" s="147"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="77"/>
+      <c r="R51" s="77"/>
+      <c r="S51" s="77"/>
+      <c r="T51" s="77"/>
+      <c r="U51" s="77"/>
+      <c r="V51" s="77"/>
+      <c r="W51" s="77"/>
+      <c r="X51" s="77"/>
+      <c r="Y51" s="77"/>
+      <c r="Z51" s="77"/>
+      <c r="AA51" s="77"/>
+      <c r="AB51" s="77"/>
+      <c r="AC51" s="78"/>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="85"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
-      <c r="N52" s="153"/>
-      <c r="O52" s="153"/>
-      <c r="P52" s="153"/>
-      <c r="Q52" s="153"/>
-      <c r="R52" s="153"/>
-      <c r="S52" s="153"/>
-      <c r="T52" s="153"/>
-      <c r="U52" s="153"/>
-      <c r="V52" s="153"/>
-      <c r="W52" s="153"/>
-      <c r="X52" s="153"/>
-      <c r="Y52" s="153"/>
-      <c r="Z52" s="153"/>
-      <c r="AA52" s="153"/>
-      <c r="AB52" s="153"/>
-      <c r="AC52" s="154"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
+      <c r="R52" s="81"/>
+      <c r="S52" s="81"/>
+      <c r="T52" s="81"/>
+      <c r="U52" s="81"/>
+      <c r="V52" s="81"/>
+      <c r="W52" s="81"/>
+      <c r="X52" s="81"/>
+      <c r="Y52" s="81"/>
+      <c r="Z52" s="81"/>
+      <c r="AA52" s="81"/>
+      <c r="AB52" s="81"/>
+      <c r="AC52" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:P51"/>
-    <mergeCell ref="Q51:AC51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:P44"/>
-    <mergeCell ref="Q44:AC44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:P45"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:P42"/>
-    <mergeCell ref="Q42:AC42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:P43"/>
-    <mergeCell ref="Q43:AC43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="H35:K35"/>
@@ -3989,63 +4002,44 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:P42"/>
+    <mergeCell ref="Q42:AC42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:P43"/>
+    <mergeCell ref="Q43:AC43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:P44"/>
+    <mergeCell ref="Q44:AC44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:P51"/>
+    <mergeCell ref="Q51:AC51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">

--- a/src/main/resources/excel/meetingSheet_3rd2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_3rd2term.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamazakikeisuke/IdeaProjects/student_management_system/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/MEGAsync/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29CDBA-4ED6-7D40-B8A9-6371B8DCD83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28BDE1-7664-C14D-8D42-8A95981F8711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -33,14 +33,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -797,7 +797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1526,13 +1526,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1827,10 +1849,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1980,16 +2005,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2324,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E040C1C8-E3C5-9F44-AD5D-963E75E85E9B}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2342,28 +2367,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
       <c r="S1" s="3"/>
       <c r="T1" s="96" t="s">
         <v>11</v>
@@ -2381,47 +2406,47 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="117"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="118"/>
       <c r="S2" s="31"/>
       <c r="T2" s="98" t="s">
         <v>13</v>
       </c>
       <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
       <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="D3" s="121" t="s">
+      <c r="B3" s="121"/>
+      <c r="D3" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="122"/>
+      <c r="E3" s="123"/>
       <c r="F3" s="34" t="s">
         <v>16</v>
       </c>
@@ -2494,17 +2519,17 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="111" t="str" cm="1">
+      <c r="B4" s="112" t="str" cm="1">
         <f t="array" ref="B4">IFERROR(_xlfn.IFS(P9&gt;9,P9*2+P7,P8&gt;9,P8*2+P7,P7&gt;9,P7*3,P6&gt;9,P6*3,P5&gt;9,P5*3,P4&gt;9,P4*3),"")</f>
         <v/>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="124"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="14"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2532,12 +2557,12 @@
       <c r="AC4" s="21"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="111"/>
-      <c r="D5" s="125" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="112"/>
+      <c r="D5" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="126"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="15"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2565,17 +2590,17 @@
       <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="111" t="str" cm="1">
+      <c r="B6" s="112" t="str" cm="1">
         <f t="array" ref="B6">IFERROR(_xlfn.IFS(P9&gt;9,P9,P8&gt;9,P8,P7&gt;9,P7,P6&gt;9,P6,P5&gt;9,P5,P4&gt;9,P4),"")</f>
         <v/>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="128"/>
+      <c r="E6" s="129"/>
       <c r="F6" s="40"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
@@ -2603,12 +2628,12 @@
       <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="106"/>
-      <c r="B7" s="111"/>
-      <c r="D7" s="129" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="D7" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="130"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="44"/>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
@@ -2636,17 +2661,17 @@
       <c r="AC7" s="23"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="111" t="str" cm="1">
+      <c r="B8" s="112" t="str" cm="1">
         <f t="array" ref="B8">IFERROR(_xlfn.IFS(K9&gt;9,K9+K7,K8&gt;9,K8+K7,K7&gt;9,K7*2,K6&gt;0,K6*2,K5&gt;0,K5*2,K4&gt;0,K4*2),"")</f>
         <v/>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="101"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="48"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
@@ -2674,12 +2699,12 @@
       <c r="AC8" s="65"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="111"/>
-      <c r="D9" s="102" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="112"/>
+      <c r="D9" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
@@ -2707,10 +2732,10 @@
       <c r="AC9" s="21"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="111" t="str" cm="1">
+      <c r="B10" s="112" t="str" cm="1">
         <f t="array" ref="B10">IFERROR(_xlfn.IFS(K9&gt;0,K9,K8&gt;0,K8,K7&gt;0,K7,K6&gt;0,K6,K5&gt;0,K5,K4&gt;0,K4),"")</f>
         <v/>
       </c>
@@ -2743,12 +2768,12 @@
       <c r="AC10" s="21"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="106"/>
-      <c r="B11" s="111"/>
-      <c r="D11" s="104" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="112"/>
+      <c r="D11" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="36" t="s">
         <v>16</v>
       </c>
@@ -2798,17 +2823,17 @@
       <c r="AC11" s="23"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="111" t="str">
+      <c r="B12" s="112" t="str">
         <f>IFERROR(ROUND(B4/135*100,0),"")</f>
         <v/>
       </c>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="140"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="14"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2845,12 +2870,12 @@
       <c r="AC12" s="66"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="107"/>
-      <c r="B13" s="111"/>
-      <c r="D13" s="139" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="112"/>
+      <c r="D13" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="140"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="14"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2887,17 +2912,17 @@
       <c r="AC13" s="21"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="112" t="str">
+      <c r="B14" s="113" t="str">
         <f>IFERROR(LOOKUP(10^10,N12:N17),"")</f>
         <v/>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="140"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="14"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2934,12 +2959,12 @@
       <c r="AC14" s="23"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="108"/>
-      <c r="B15" s="113"/>
-      <c r="D15" s="139" t="s">
+      <c r="A15" s="109"/>
+      <c r="B15" s="114"/>
+      <c r="D15" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="140"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="14"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2974,17 +2999,17 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="112" t="str">
+      <c r="B16" s="113" t="str">
         <f>IFERROR(LOOKUP(10^10,O12:O17),"")</f>
         <v/>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="140"/>
+      <c r="E16" s="141"/>
       <c r="F16" s="14"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3021,12 +3046,12 @@
       <c r="AC16" s="53"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="110"/>
-      <c r="B17" s="113"/>
-      <c r="D17" s="141" t="s">
+      <c r="A17" s="111"/>
+      <c r="B17" s="114"/>
+      <c r="D17" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="142"/>
+      <c r="E17" s="143"/>
       <c r="F17" s="15"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -3061,10 +3086,10 @@
       <c r="AC17" s="55"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="112" t="str">
+      <c r="B18" s="113" t="str">
         <f>IFERROR(LOOKUP(10^10,P12:P17),"")</f>
         <v/>
       </c>
@@ -3083,8 +3108,8 @@
       <c r="AC18" s="55"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="131"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="132"/>
       <c r="R19" s="57"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3113,34 +3138,34 @@
       <c r="AC20" s="55"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="135" t="s">
+      <c r="B21" s="133"/>
+      <c r="C21" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="137" t="s">
+      <c r="D21" s="133"/>
+      <c r="E21" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="137" t="s">
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="137" t="s">
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="137" t="s">
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="138"/>
-      <c r="P21" s="143"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="144"/>
       <c r="R21" s="56"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3155,10 +3180,10 @@
       <c r="AC21" s="55"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="134"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="6">
         <v>2019</v>
       </c>
@@ -3211,8 +3236,8 @@
     <row r="23" spans="1:29" ht="18" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="76"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -3241,8 +3266,8 @@
     <row r="24" spans="1:29" ht="18" customHeight="1">
       <c r="A24" s="75"/>
       <c r="B24" s="76"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="71"/>
@@ -3271,8 +3296,8 @@
     <row r="25" spans="1:29" ht="18" customHeight="1">
       <c r="A25" s="79"/>
       <c r="B25" s="80"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="73"/>
@@ -3313,30 +3338,30 @@
       <c r="AC26" s="55"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="146" t="s">
+      <c r="B27" s="123"/>
+      <c r="C27" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="146" t="s">
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="146" t="s">
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="O27" s="122"/>
-      <c r="P27" s="150"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="153"/>
       <c r="R27" s="56"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3353,9 +3378,9 @@
     <row r="28" spans="1:29" ht="18" customHeight="1">
       <c r="A28" s="75"/>
       <c r="B28" s="76"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77"/>
@@ -3364,9 +3389,9 @@
       <c r="K28" s="77"/>
       <c r="L28" s="77"/>
       <c r="M28" s="77"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="144"/>
-      <c r="P28" s="151"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="150"/>
       <c r="R28" s="56"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3383,9 +3408,9 @@
     <row r="29" spans="1:29" ht="18" customHeight="1">
       <c r="A29" s="75"/>
       <c r="B29" s="76"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
       <c r="H29" s="77"/>
@@ -3394,9 +3419,9 @@
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
       <c r="M29" s="77"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="151"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="150"/>
       <c r="R29" s="56"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3413,9 +3438,9 @@
     <row r="30" spans="1:29" ht="18" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="76"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>
@@ -3424,9 +3449,9 @@
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>
       <c r="M30" s="77"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="151"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="150"/>
       <c r="R30" s="56"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3443,9 +3468,9 @@
     <row r="31" spans="1:29" ht="18" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="76"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
       <c r="F31" s="77"/>
       <c r="G31" s="77"/>
       <c r="H31" s="77"/>
@@ -3454,9 +3479,9 @@
       <c r="K31" s="77"/>
       <c r="L31" s="77"/>
       <c r="M31" s="77"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="144"/>
-      <c r="P31" s="151"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="150"/>
       <c r="R31" s="56"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3473,9 +3498,9 @@
     <row r="32" spans="1:29" ht="18" customHeight="1">
       <c r="A32" s="79"/>
       <c r="B32" s="80"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
       <c r="F32" s="81"/>
       <c r="G32" s="81"/>
       <c r="H32" s="81"/>
@@ -3484,9 +3509,9 @@
       <c r="K32" s="81"/>
       <c r="L32" s="81"/>
       <c r="M32" s="81"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="152"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="151"/>
       <c r="R32" s="58"/>
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
@@ -4054,7 +4079,10 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="32" max="16383" man="1"/>
+  </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/src/main/resources/excel/meetingSheet_3rd2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_3rd2term.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/MEGAsync/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28BDE1-7664-C14D-8D42-8A95981F8711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14C7BA-2F2E-C048-927C-E9D1DA573142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -30,28 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1780,241 +1758,241 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2349,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E040C1C8-E3C5-9F44-AD5D-963E75E85E9B}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2367,86 +2345,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="96" t="s">
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="118"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="107"/>
       <c r="S2" s="31"/>
-      <c r="T2" s="98" t="s">
+      <c r="T2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="99"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
       <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="D3" s="122" t="s">
+      <c r="B3" s="111"/>
+      <c r="D3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="123"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="34" t="s">
         <v>16</v>
       </c>
@@ -2519,17 +2497,14 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="112" t="str" cm="1">
-        <f t="array" ref="B4">IFERROR(_xlfn.IFS(P9&gt;9,P9*2+P7,P8&gt;9,P8*2+P7,P7&gt;9,P7*3,P6&gt;9,P6*3,P5&gt;9,P5*3,P4&gt;9,P4*3),"")</f>
-        <v/>
-      </c>
-      <c r="D4" s="124" t="s">
+      <c r="B4" s="121"/>
+      <c r="D4" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="125"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="14"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2557,12 +2532,12 @@
       <c r="AC4" s="21"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="112"/>
-      <c r="D5" s="126" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="121"/>
+      <c r="D5" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="127"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="15"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2590,17 +2565,14 @@
       <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="112" t="str" cm="1">
-        <f t="array" ref="B6">IFERROR(_xlfn.IFS(P9&gt;9,P9,P8&gt;9,P8,P7&gt;9,P7,P6&gt;9,P6,P5&gt;9,P5,P4&gt;9,P4),"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="128" t="s">
+      <c r="B6" s="121"/>
+      <c r="D6" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="40"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
@@ -2628,12 +2600,12 @@
       <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="112"/>
-      <c r="D7" s="130" t="s">
+      <c r="A7" s="118"/>
+      <c r="B7" s="121"/>
+      <c r="D7" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="131"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="44"/>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
@@ -2661,17 +2633,14 @@
       <c r="AC7" s="23"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="112" t="str" cm="1">
-        <f t="array" ref="B8">IFERROR(_xlfn.IFS(K9&gt;9,K9+K7,K8&gt;9,K8+K7,K7&gt;9,K7*2,K6&gt;0,K6*2,K5&gt;0,K5*2,K4&gt;0,K4*2),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="101" t="s">
+      <c r="B8" s="121"/>
+      <c r="D8" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="48"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
@@ -2699,12 +2668,12 @@
       <c r="AC8" s="65"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="107"/>
-      <c r="B9" s="112"/>
-      <c r="D9" s="103" t="s">
+      <c r="A9" s="118"/>
+      <c r="B9" s="121"/>
+      <c r="D9" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="133"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
@@ -2732,13 +2701,10 @@
       <c r="AC9" s="21"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="112" t="str" cm="1">
-        <f t="array" ref="B10">IFERROR(_xlfn.IFS(K9&gt;0,K9,K8&gt;0,K8,K7&gt;0,K7,K6&gt;0,K6,K5&gt;0,K5,K4&gt;0,K4),"")</f>
-        <v/>
-      </c>
+      <c r="B10" s="121"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="4"/>
@@ -2768,12 +2734,12 @@
       <c r="AC10" s="21"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="107"/>
-      <c r="B11" s="112"/>
-      <c r="D11" s="105" t="s">
+      <c r="A11" s="118"/>
+      <c r="B11" s="121"/>
+      <c r="D11" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="135"/>
       <c r="F11" s="36" t="s">
         <v>16</v>
       </c>
@@ -2823,17 +2789,14 @@
       <c r="AC11" s="23"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="112" t="str">
-        <f>IFERROR(ROUND(B4/135*100,0),"")</f>
-        <v/>
-      </c>
-      <c r="D12" s="140" t="s">
+      <c r="B12" s="121"/>
+      <c r="D12" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="141"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="14"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2842,18 +2805,9 @@
       <c r="K12" s="18"/>
       <c r="L12" s="20"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="62" t="str">
-        <f>IFERROR(ROUND(IF(K12="","",K12/500*100*5+$B$4/135*100*3),1),"")</f>
-        <v/>
-      </c>
-      <c r="O12" s="67" t="str">
-        <f>IFERROR(ROUND(IF(K12="","",K12/500*100*4+$B$4/135*100*4),1),"")</f>
-        <v/>
-      </c>
-      <c r="P12" s="68" t="str">
-        <f>IFERROR(ROUND(IF(K12="","",K12/500*100*3+$B$4/135*100*5),1),"")</f>
-        <v/>
-      </c>
+      <c r="N12" s="62"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
       <c r="R12" s="30" t="s">
         <v>65</v>
       </c>
@@ -2870,12 +2824,12 @@
       <c r="AC12" s="66"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="112"/>
-      <c r="D13" s="140" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="121"/>
+      <c r="D13" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="141"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="14"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2884,18 +2838,9 @@
       <c r="K13" s="18"/>
       <c r="L13" s="20"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="62" t="str">
-        <f t="shared" ref="N13:N17" si="0">IFERROR(ROUND(IF(K13="","",K13/500*100*5+$B$4/135*100*3),1),"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="67" t="str">
-        <f t="shared" ref="O13:O17" si="1">IFERROR(ROUND(IF(K13="","",K13/500*100*4+$B$4/135*100*4),1),"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="68" t="str">
-        <f t="shared" ref="P13:P17" si="2">IFERROR(ROUND(IF(K13="","",K13/500*100*3+$B$4/135*100*5),1),"")</f>
-        <v/>
-      </c>
+      <c r="N13" s="62"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
       <c r="R13" s="27" t="s">
         <v>66</v>
       </c>
@@ -2912,17 +2857,14 @@
       <c r="AC13" s="21"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="113" t="str">
-        <f>IFERROR(LOOKUP(10^10,N12:N17),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="140" t="s">
+      <c r="B14" s="151"/>
+      <c r="D14" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="141"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="14"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2931,18 +2873,9 @@
       <c r="K14" s="18"/>
       <c r="L14" s="20"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O14" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P14" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N14" s="62"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="68"/>
       <c r="R14" s="28" t="s">
         <v>67</v>
       </c>
@@ -2959,12 +2892,12 @@
       <c r="AC14" s="23"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="109"/>
-      <c r="B15" s="114"/>
-      <c r="D15" s="140" t="s">
+      <c r="A15" s="137"/>
+      <c r="B15" s="152"/>
+      <c r="D15" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="141"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="14"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2973,18 +2906,9 @@
       <c r="K15" s="18"/>
       <c r="L15" s="20"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O15" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P15" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N15" s="62"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
       <c r="R15" s="9"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -2999,17 +2923,14 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="113" t="str">
-        <f>IFERROR(LOOKUP(10^10,O12:O17),"")</f>
-        <v/>
-      </c>
-      <c r="D16" s="140" t="s">
+      <c r="B16" s="151"/>
+      <c r="D16" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="141"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="14"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3018,18 +2939,9 @@
       <c r="K16" s="18"/>
       <c r="L16" s="20"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O16" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P16" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N16" s="62"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
       <c r="R16" s="64" t="s">
         <v>50</v>
       </c>
@@ -3046,12 +2958,12 @@
       <c r="AC16" s="53"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="111"/>
-      <c r="B17" s="114"/>
-      <c r="D17" s="142" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="152"/>
+      <c r="D17" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="143"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="15"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -3060,18 +2972,9 @@
       <c r="K17" s="19"/>
       <c r="L17" s="22"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O17" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P17" s="70" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N17" s="63"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="70"/>
       <c r="R17" s="54"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -3086,13 +2989,10 @@
       <c r="AC17" s="55"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="113" t="str">
-        <f>IFERROR(LOOKUP(10^10,P12:P17),"")</f>
-        <v/>
-      </c>
+      <c r="B18" s="151"/>
       <c r="O18" s="52"/>
       <c r="R18" s="56"/>
       <c r="S18" s="4"/>
@@ -3108,8 +3008,8 @@
       <c r="AC18" s="55"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="115"/>
-      <c r="B19" s="132"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="153"/>
       <c r="R19" s="57"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3138,34 +3038,34 @@
       <c r="AC20" s="55"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="138" t="s">
+      <c r="D21" s="95"/>
+      <c r="E21" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="138" t="s">
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="138" t="s">
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="138" t="s">
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="139"/>
-      <c r="P21" s="144"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="104"/>
       <c r="R21" s="56"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3180,10 +3080,10 @@
       <c r="AC21" s="55"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="134"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="135"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="97"/>
       <c r="E22" s="6">
         <v>2019</v>
       </c>
@@ -3234,10 +3134,10 @@
       <c r="AC22" s="55"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -3264,10 +3164,10 @@
       <c r="AC23" s="55"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="71"/>
@@ -3294,10 +3194,10 @@
       <c r="AC24" s="55"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="73"/>
@@ -3338,30 +3238,30 @@
       <c r="AC26" s="55"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="147" t="s">
+      <c r="B27" s="84"/>
+      <c r="C27" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="147" t="s">
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="147" t="s">
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="O27" s="123"/>
-      <c r="P27" s="153"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="86"/>
       <c r="R27" s="56"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3376,22 +3276,22 @@
       <c r="AC27" s="55"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="150"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="79"/>
       <c r="R28" s="56"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3406,22 +3306,22 @@
       <c r="AC28" s="55"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="75"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="150"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="79"/>
       <c r="R29" s="56"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3436,22 +3336,22 @@
       <c r="AC29" s="55"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="150"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="79"/>
       <c r="R30" s="56"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3466,22 +3366,22 @@
       <c r="AC30" s="55"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="150"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="79"/>
       <c r="R31" s="56"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3496,22 +3396,22 @@
       <c r="AC31" s="55"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="79"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="151"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="81"/>
       <c r="R32" s="58"/>
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
@@ -3532,80 +3432,80 @@
       </c>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94" t="s">
+      <c r="B35" s="123"/>
+      <c r="C35" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94" t="s">
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94" t="s">
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="124"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="75"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="90"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="125"/>
+      <c r="N36" s="125"/>
+      <c r="O36" s="126"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="75"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="90"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="125"/>
+      <c r="N37" s="125"/>
+      <c r="O37" s="126"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="79"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="92"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="145"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="146"/>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="10" t="s">
@@ -3618,134 +3518,134 @@
       </c>
     </row>
     <row r="42" spans="1:29">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84" t="s">
+      <c r="B42" s="142"/>
+      <c r="C42" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84" t="s">
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="142"/>
+      <c r="O42" s="142"/>
+      <c r="P42" s="142"/>
+      <c r="Q42" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="84"/>
-      <c r="W42" s="84"/>
-      <c r="X42" s="84"/>
-      <c r="Y42" s="84"/>
-      <c r="Z42" s="84"/>
-      <c r="AA42" s="84"/>
-      <c r="AB42" s="84"/>
-      <c r="AC42" s="88"/>
+      <c r="R42" s="142"/>
+      <c r="S42" s="142"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
+      <c r="W42" s="142"/>
+      <c r="X42" s="142"/>
+      <c r="Y42" s="142"/>
+      <c r="Z42" s="142"/>
+      <c r="AA42" s="142"/>
+      <c r="AB42" s="142"/>
+      <c r="AC42" s="143"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="75"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="77"/>
-      <c r="S43" s="77"/>
-      <c r="T43" s="77"/>
-      <c r="U43" s="77"/>
-      <c r="V43" s="77"/>
-      <c r="W43" s="77"/>
-      <c r="X43" s="77"/>
-      <c r="Y43" s="77"/>
-      <c r="Z43" s="77"/>
-      <c r="AA43" s="77"/>
-      <c r="AB43" s="77"/>
-      <c r="AC43" s="78"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="82"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="82"/>
+      <c r="AC43" s="144"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="77"/>
-      <c r="S44" s="77"/>
-      <c r="T44" s="77"/>
-      <c r="U44" s="77"/>
-      <c r="V44" s="77"/>
-      <c r="W44" s="77"/>
-      <c r="X44" s="77"/>
-      <c r="Y44" s="77"/>
-      <c r="Z44" s="77"/>
-      <c r="AA44" s="77"/>
-      <c r="AB44" s="77"/>
-      <c r="AC44" s="78"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="82"/>
+      <c r="V44" s="82"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="82"/>
+      <c r="AB44" s="82"/>
+      <c r="AC44" s="144"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="79"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="81"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="81"/>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="82"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="77"/>
+      <c r="T45" s="77"/>
+      <c r="U45" s="77"/>
+      <c r="V45" s="77"/>
+      <c r="W45" s="77"/>
+      <c r="X45" s="77"/>
+      <c r="Y45" s="77"/>
+      <c r="Z45" s="77"/>
+      <c r="AA45" s="77"/>
+      <c r="AB45" s="77"/>
+      <c r="AC45" s="150"/>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="10" t="s">
@@ -3753,256 +3653,237 @@
       </c>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84" t="s">
+      <c r="B47" s="142"/>
+      <c r="C47" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="85" t="s">
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="142"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
+      <c r="O47" s="142"/>
+      <c r="P47" s="142"/>
+      <c r="Q47" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="R47" s="86"/>
-      <c r="S47" s="86"/>
-      <c r="T47" s="86"/>
-      <c r="U47" s="86"/>
-      <c r="V47" s="86"/>
-      <c r="W47" s="86"/>
-      <c r="X47" s="86"/>
-      <c r="Y47" s="86"/>
-      <c r="Z47" s="86"/>
-      <c r="AA47" s="86"/>
-      <c r="AB47" s="86"/>
-      <c r="AC47" s="87"/>
+      <c r="R47" s="148"/>
+      <c r="S47" s="148"/>
+      <c r="T47" s="148"/>
+      <c r="U47" s="148"/>
+      <c r="V47" s="148"/>
+      <c r="W47" s="148"/>
+      <c r="X47" s="148"/>
+      <c r="Y47" s="148"/>
+      <c r="Z47" s="148"/>
+      <c r="AA47" s="148"/>
+      <c r="AB47" s="148"/>
+      <c r="AC47" s="149"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="75"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="77"/>
-      <c r="Q48" s="77"/>
-      <c r="R48" s="77"/>
-      <c r="S48" s="77"/>
-      <c r="T48" s="77"/>
-      <c r="U48" s="77"/>
-      <c r="V48" s="77"/>
-      <c r="W48" s="77"/>
-      <c r="X48" s="77"/>
-      <c r="Y48" s="77"/>
-      <c r="Z48" s="77"/>
-      <c r="AA48" s="77"/>
-      <c r="AB48" s="77"/>
-      <c r="AC48" s="78"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="82"/>
+      <c r="AB48" s="82"/>
+      <c r="AC48" s="144"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="75"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="77"/>
-      <c r="R49" s="77"/>
-      <c r="S49" s="77"/>
-      <c r="T49" s="77"/>
-      <c r="U49" s="77"/>
-      <c r="V49" s="77"/>
-      <c r="W49" s="77"/>
-      <c r="X49" s="77"/>
-      <c r="Y49" s="77"/>
-      <c r="Z49" s="77"/>
-      <c r="AA49" s="77"/>
-      <c r="AB49" s="77"/>
-      <c r="AC49" s="78"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="82"/>
+      <c r="AC49" s="144"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="75"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="77"/>
-      <c r="Q50" s="77"/>
-      <c r="R50" s="77"/>
-      <c r="S50" s="77"/>
-      <c r="T50" s="77"/>
-      <c r="U50" s="77"/>
-      <c r="V50" s="77"/>
-      <c r="W50" s="77"/>
-      <c r="X50" s="77"/>
-      <c r="Y50" s="77"/>
-      <c r="Z50" s="77"/>
-      <c r="AA50" s="77"/>
-      <c r="AB50" s="77"/>
-      <c r="AC50" s="78"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="82"/>
+      <c r="AC50" s="144"/>
     </row>
     <row r="51" spans="1:29">
-      <c r="A51" s="75"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="77"/>
-      <c r="Q51" s="77"/>
-      <c r="R51" s="77"/>
-      <c r="S51" s="77"/>
-      <c r="T51" s="77"/>
-      <c r="U51" s="77"/>
-      <c r="V51" s="77"/>
-      <c r="W51" s="77"/>
-      <c r="X51" s="77"/>
-      <c r="Y51" s="77"/>
-      <c r="Z51" s="77"/>
-      <c r="AA51" s="77"/>
-      <c r="AB51" s="77"/>
-      <c r="AC51" s="78"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="82"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="82"/>
+      <c r="AB51" s="82"/>
+      <c r="AC51" s="144"/>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="79"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="81"/>
-      <c r="V52" s="81"/>
-      <c r="W52" s="81"/>
-      <c r="X52" s="81"/>
-      <c r="Y52" s="81"/>
-      <c r="Z52" s="81"/>
-      <c r="AA52" s="81"/>
-      <c r="AB52" s="81"/>
-      <c r="AC52" s="82"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="77"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
+      <c r="U52" s="77"/>
+      <c r="V52" s="77"/>
+      <c r="W52" s="77"/>
+      <c r="X52" s="77"/>
+      <c r="Y52" s="77"/>
+      <c r="Z52" s="77"/>
+      <c r="AA52" s="77"/>
+      <c r="AB52" s="77"/>
+      <c r="AC52" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:P51"/>
+    <mergeCell ref="Q51:AC51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:P44"/>
+    <mergeCell ref="Q44:AC44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:P42"/>
+    <mergeCell ref="Q42:AC42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:P43"/>
+    <mergeCell ref="Q43:AC43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="H35:K35"/>
@@ -4027,44 +3908,63 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:P42"/>
-    <mergeCell ref="Q42:AC42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:P43"/>
-    <mergeCell ref="Q43:AC43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:P44"/>
-    <mergeCell ref="Q44:AC44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:P45"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:P51"/>
-    <mergeCell ref="Q51:AC51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">

--- a/src/main/resources/excel/meetingSheet_3rd2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_3rd2term.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/MEGAsync/IdeaProjects/student_management_system/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Dropbox/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14C7BA-2F2E-C048-927C-E9D1DA573142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD417C7-9C1C-BB48-BB49-D8E307AC5BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>内申 /135</t>
   </si>
@@ -68,13 +68,6 @@
     </rPh>
     <rPh sb="4" eb="9">
       <t xml:space="preserve">ホゴシャメンダンシート </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>2019年度</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ネンド </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1758,95 +1751,128 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1860,15 +1886,18 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1887,112 +1916,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2345,166 +2338,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="117"/>
+      <c r="B1" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="109" t="s">
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="109" t="s">
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" ht="25" customHeight="1">
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="127" t="s">
+      <c r="U2" s="99"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="32"/>
+    </row>
+    <row r="3" spans="1:29" ht="18" customHeight="1">
+      <c r="A3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="128"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="32"/>
-    </row>
-    <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="B3" s="121"/>
+      <c r="D3" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="D3" s="89" t="s">
+      <c r="E3" s="123"/>
+      <c r="F3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="N3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="P3" s="33" t="s">
         <v>25</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>26</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AC3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="33" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="D4" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="113"/>
+      <c r="B4" s="112"/>
+      <c r="D4" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="125"/>
       <c r="F4" s="14"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2517,7 +2508,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="18"/>
       <c r="R4" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="5"/>
@@ -2532,12 +2523,12 @@
       <c r="AC4" s="21"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="121"/>
-      <c r="D5" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="115"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="112"/>
+      <c r="D5" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="127"/>
       <c r="F5" s="15"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2550,7 +2541,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="19"/>
       <c r="R5" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="5"/>
@@ -2565,14 +2556,14 @@
       <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="D6" s="116" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="117"/>
+      <c r="B6" s="112"/>
+      <c r="D6" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="129"/>
       <c r="F6" s="40"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
@@ -2585,7 +2576,7 @@
       <c r="O6" s="42"/>
       <c r="P6" s="43"/>
       <c r="R6" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S6" s="14"/>
       <c r="T6" s="5"/>
@@ -2600,12 +2591,12 @@
       <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="118"/>
-      <c r="B7" s="121"/>
-      <c r="D7" s="119" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="120"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="D7" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="131"/>
       <c r="F7" s="44"/>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
@@ -2618,7 +2609,7 @@
       <c r="O7" s="46"/>
       <c r="P7" s="47"/>
       <c r="R7" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="13"/>
@@ -2633,14 +2624,14 @@
       <c r="AC7" s="23"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="D8" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="131"/>
+      <c r="B8" s="112"/>
+      <c r="D8" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="102"/>
       <c r="F8" s="48"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
@@ -2653,7 +2644,7 @@
       <c r="O8" s="50"/>
       <c r="P8" s="51"/>
       <c r="R8" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S8" s="40"/>
       <c r="T8" s="41"/>
@@ -2668,12 +2659,12 @@
       <c r="AC8" s="65"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="118"/>
-      <c r="B9" s="121"/>
-      <c r="D9" s="132" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="133"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="112"/>
+      <c r="D9" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="104"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
@@ -2686,7 +2677,7 @@
       <c r="O9" s="46"/>
       <c r="P9" s="47"/>
       <c r="R9" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S9" s="14"/>
       <c r="T9" s="5"/>
@@ -2701,10 +2692,10 @@
       <c r="AC9" s="21"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="112"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="4"/>
@@ -2719,7 +2710,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="R10" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="5"/>
@@ -2734,47 +2725,47 @@
       <c r="AC10" s="21"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="118"/>
-      <c r="B11" s="121"/>
-      <c r="D11" s="134" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="112"/>
+      <c r="D11" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="106"/>
+      <c r="F11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="135"/>
-      <c r="F11" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="36" t="s">
+      <c r="M11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="12" t="s">
+      <c r="N11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="24" t="s">
+      <c r="O11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="P11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="26" t="s">
-        <v>37</v>
-      </c>
       <c r="R11" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="13"/>
@@ -2789,14 +2780,14 @@
       <c r="AC11" s="23"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="136" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="121"/>
-      <c r="D12" s="75" t="s">
+      <c r="A12" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="D12" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="76"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="14"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2809,7 +2800,7 @@
       <c r="O12" s="67"/>
       <c r="P12" s="68"/>
       <c r="R12" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S12" s="48"/>
       <c r="T12" s="49"/>
@@ -2824,12 +2815,12 @@
       <c r="AC12" s="66"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="121"/>
-      <c r="D13" s="75" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="112"/>
+      <c r="D13" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="14"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2842,7 +2833,7 @@
       <c r="O13" s="67"/>
       <c r="P13" s="68"/>
       <c r="R13" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="5"/>
@@ -2857,14 +2848,14 @@
       <c r="AC13" s="21"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="151"/>
-      <c r="D14" s="75" t="s">
+      <c r="A14" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="113"/>
+      <c r="D14" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="76"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="14"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2877,7 +2868,7 @@
       <c r="O14" s="67"/>
       <c r="P14" s="68"/>
       <c r="R14" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="13"/>
@@ -2892,12 +2883,12 @@
       <c r="AC14" s="23"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="137"/>
-      <c r="B15" s="152"/>
-      <c r="D15" s="75" t="s">
+      <c r="A15" s="109"/>
+      <c r="B15" s="114"/>
+      <c r="D15" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="14"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2923,14 +2914,14 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="138" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="151"/>
-      <c r="D16" s="75" t="s">
+      <c r="A16" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="113"/>
+      <c r="D16" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="76"/>
+      <c r="E16" s="141"/>
       <c r="F16" s="14"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2943,7 +2934,7 @@
       <c r="O16" s="67"/>
       <c r="P16" s="68"/>
       <c r="R16" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S16" s="52"/>
       <c r="T16" s="52"/>
@@ -2958,12 +2949,12 @@
       <c r="AC16" s="53"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="139"/>
-      <c r="B17" s="152"/>
-      <c r="D17" s="102" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="103"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="114"/>
+      <c r="D17" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="143"/>
       <c r="F17" s="15"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -2989,10 +2980,10 @@
       <c r="AC17" s="55"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="138" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="151"/>
+      <c r="A18" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="113"/>
       <c r="O18" s="52"/>
       <c r="R18" s="56"/>
       <c r="S18" s="4"/>
@@ -3008,8 +2999,8 @@
       <c r="AC18" s="55"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="140"/>
-      <c r="B19" s="153"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="132"/>
       <c r="R19" s="57"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3038,34 +3029,34 @@
       <c r="AC20" s="55"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="98" t="s">
+      <c r="D21" s="133"/>
+      <c r="E21" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="100" t="s">
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="100" t="s">
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="100" t="s">
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21" s="101"/>
-      <c r="P21" s="104"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="144"/>
       <c r="R21" s="56"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3080,10 +3071,10 @@
       <c r="AC21" s="55"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="96"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="97"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="6">
         <v>2019</v>
       </c>
@@ -3134,10 +3125,10 @@
       <c r="AC22" s="55"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -3164,10 +3155,10 @@
       <c r="AC23" s="55"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="71"/>
@@ -3194,10 +3185,10 @@
       <c r="AC24" s="55"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="87"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="73"/>
@@ -3238,30 +3229,30 @@
       <c r="AC26" s="55"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="83" t="s">
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="83" t="s">
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="O27" s="84"/>
-      <c r="P27" s="86"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="153"/>
       <c r="R27" s="56"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3276,22 +3267,22 @@
       <c r="AC27" s="55"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="79"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="150"/>
       <c r="R28" s="56"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3306,22 +3297,22 @@
       <c r="AC28" s="55"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="90"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="79"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="150"/>
       <c r="R29" s="56"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3336,22 +3327,22 @@
       <c r="AC29" s="55"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="79"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="150"/>
       <c r="R30" s="56"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3366,22 +3357,22 @@
       <c r="AC30" s="55"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="90"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="79"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="150"/>
       <c r="R31" s="56"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3396,22 +3387,22 @@
       <c r="AC31" s="55"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="87"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="81"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="151"/>
       <c r="R32" s="58"/>
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
@@ -3428,462 +3419,481 @@
     <row r="33" spans="1:29" ht="19" customHeight="1"/>
     <row r="34" spans="1:29">
       <c r="A34" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="93" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="122" t="s">
+      <c r="B35" s="94"/>
+      <c r="C35" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="123" t="s">
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123" t="s">
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="124"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="95"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="126"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="90"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="90"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="125"/>
-      <c r="O37" s="126"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="90"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="87"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="146"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="92"/>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="83" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
-      <c r="A42" s="141" t="s">
+      <c r="B42" s="84"/>
+      <c r="C42" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="142"/>
-      <c r="C42" s="142" t="s">
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="142"/>
-      <c r="K42" s="142"/>
-      <c r="L42" s="142"/>
-      <c r="M42" s="142"/>
-      <c r="N42" s="142"/>
-      <c r="O42" s="142"/>
-      <c r="P42" s="142"/>
-      <c r="Q42" s="142" t="s">
-        <v>77</v>
-      </c>
-      <c r="R42" s="142"/>
-      <c r="S42" s="142"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="142"/>
-      <c r="V42" s="142"/>
-      <c r="W42" s="142"/>
-      <c r="X42" s="142"/>
-      <c r="Y42" s="142"/>
-      <c r="Z42" s="142"/>
-      <c r="AA42" s="142"/>
-      <c r="AB42" s="142"/>
-      <c r="AC42" s="143"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="84"/>
+      <c r="U42" s="84"/>
+      <c r="V42" s="84"/>
+      <c r="W42" s="84"/>
+      <c r="X42" s="84"/>
+      <c r="Y42" s="84"/>
+      <c r="Z42" s="84"/>
+      <c r="AA42" s="84"/>
+      <c r="AB42" s="84"/>
+      <c r="AC42" s="88"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="90"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="82"/>
-      <c r="AC43" s="144"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="77"/>
+      <c r="Z43" s="77"/>
+      <c r="AA43" s="77"/>
+      <c r="AB43" s="77"/>
+      <c r="AC43" s="78"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="90"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="82"/>
-      <c r="V44" s="82"/>
-      <c r="W44" s="82"/>
-      <c r="X44" s="82"/>
-      <c r="Y44" s="82"/>
-      <c r="Z44" s="82"/>
-      <c r="AA44" s="82"/>
-      <c r="AB44" s="82"/>
-      <c r="AC44" s="144"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="77"/>
+      <c r="W44" s="77"/>
+      <c r="X44" s="77"/>
+      <c r="Y44" s="77"/>
+      <c r="Z44" s="77"/>
+      <c r="AA44" s="77"/>
+      <c r="AB44" s="77"/>
+      <c r="AC44" s="78"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="87"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="77"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="77"/>
-      <c r="U45" s="77"/>
-      <c r="V45" s="77"/>
-      <c r="W45" s="77"/>
-      <c r="X45" s="77"/>
-      <c r="Y45" s="77"/>
-      <c r="Z45" s="77"/>
-      <c r="AA45" s="77"/>
-      <c r="AB45" s="77"/>
-      <c r="AC45" s="150"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="81"/>
+      <c r="AA45" s="81"/>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="82"/>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="141" t="s">
+      <c r="A47" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="142"/>
-      <c r="C47" s="142" t="s">
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
-      <c r="P47" s="142"/>
-      <c r="Q47" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="R47" s="148"/>
-      <c r="S47" s="148"/>
-      <c r="T47" s="148"/>
-      <c r="U47" s="148"/>
-      <c r="V47" s="148"/>
-      <c r="W47" s="148"/>
-      <c r="X47" s="148"/>
-      <c r="Y47" s="148"/>
-      <c r="Z47" s="148"/>
-      <c r="AA47" s="148"/>
-      <c r="AB47" s="148"/>
-      <c r="AC47" s="149"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="86"/>
+      <c r="X47" s="86"/>
+      <c r="Y47" s="86"/>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="86"/>
+      <c r="AB47" s="86"/>
+      <c r="AC47" s="87"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="90"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
-      <c r="V48" s="82"/>
-      <c r="W48" s="82"/>
-      <c r="X48" s="82"/>
-      <c r="Y48" s="82"/>
-      <c r="Z48" s="82"/>
-      <c r="AA48" s="82"/>
-      <c r="AB48" s="82"/>
-      <c r="AC48" s="144"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="77"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="77"/>
+      <c r="T48" s="77"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
+      <c r="AB48" s="77"/>
+      <c r="AC48" s="78"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="90"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="144"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
+      <c r="Y49" s="77"/>
+      <c r="Z49" s="77"/>
+      <c r="AA49" s="77"/>
+      <c r="AB49" s="77"/>
+      <c r="AC49" s="78"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="90"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
-      <c r="W50" s="82"/>
-      <c r="X50" s="82"/>
-      <c r="Y50" s="82"/>
-      <c r="Z50" s="82"/>
-      <c r="AA50" s="82"/>
-      <c r="AB50" s="82"/>
-      <c r="AC50" s="144"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="77"/>
+      <c r="S50" s="77"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="77"/>
+      <c r="V50" s="77"/>
+      <c r="W50" s="77"/>
+      <c r="X50" s="77"/>
+      <c r="Y50" s="77"/>
+      <c r="Z50" s="77"/>
+      <c r="AA50" s="77"/>
+      <c r="AB50" s="77"/>
+      <c r="AC50" s="78"/>
     </row>
     <row r="51" spans="1:29">
-      <c r="A51" s="90"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="82"/>
-      <c r="Z51" s="82"/>
-      <c r="AA51" s="82"/>
-      <c r="AB51" s="82"/>
-      <c r="AC51" s="144"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="77"/>
+      <c r="R51" s="77"/>
+      <c r="S51" s="77"/>
+      <c r="T51" s="77"/>
+      <c r="U51" s="77"/>
+      <c r="V51" s="77"/>
+      <c r="W51" s="77"/>
+      <c r="X51" s="77"/>
+      <c r="Y51" s="77"/>
+      <c r="Z51" s="77"/>
+      <c r="AA51" s="77"/>
+      <c r="AB51" s="77"/>
+      <c r="AC51" s="78"/>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="87"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="77"/>
-      <c r="S52" s="77"/>
-      <c r="T52" s="77"/>
-      <c r="U52" s="77"/>
-      <c r="V52" s="77"/>
-      <c r="W52" s="77"/>
-      <c r="X52" s="77"/>
-      <c r="Y52" s="77"/>
-      <c r="Z52" s="77"/>
-      <c r="AA52" s="77"/>
-      <c r="AB52" s="77"/>
-      <c r="AC52" s="150"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
+      <c r="R52" s="81"/>
+      <c r="S52" s="81"/>
+      <c r="T52" s="81"/>
+      <c r="U52" s="81"/>
+      <c r="V52" s="81"/>
+      <c r="W52" s="81"/>
+      <c r="X52" s="81"/>
+      <c r="Y52" s="81"/>
+      <c r="Z52" s="81"/>
+      <c r="AA52" s="81"/>
+      <c r="AB52" s="81"/>
+      <c r="AC52" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:P51"/>
-    <mergeCell ref="Q51:AC51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:P44"/>
-    <mergeCell ref="Q44:AC44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:P45"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:P42"/>
-    <mergeCell ref="Q42:AC42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:P43"/>
-    <mergeCell ref="Q43:AC43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="H35:K35"/>
@@ -3908,63 +3918,44 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:P42"/>
+    <mergeCell ref="Q42:AC42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:P43"/>
+    <mergeCell ref="Q43:AC43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:P44"/>
+    <mergeCell ref="Q44:AC44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:P51"/>
+    <mergeCell ref="Q51:AC51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">
